--- a/public/importar_elecciones.xlsx
+++ b/public/importar_elecciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\elecciones\elecciones2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7E5BE-64C8-4DB5-9826-32191D7DE589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEB109E-70AC-4ABE-85F8-C00FD4DFA2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{85CEF7AA-D9A4-4DCA-81B9-34B7E0F975FA}"/>
   </bookViews>
@@ -41,16 +41,16 @@
     <t>Blancos</t>
   </si>
   <si>
-    <t>Candidato 2</t>
-  </si>
-  <si>
-    <t>Candidato 1</t>
-  </si>
-  <si>
     <t>Numero de mesa</t>
   </si>
   <si>
-    <t>impugnados</t>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Impugnados</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,13 +418,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
